--- a/Second revision/Vertical crustal movement calculations/Common_era_no_outliers.xlsx
+++ b/Second revision/Vertical crustal movement calculations/Common_era_no_outliers.xlsx
@@ -45,6 +45,24 @@
     <t>Vertical error ± [m]</t>
   </si>
   <si>
+    <t>PT_FMA5</t>
+  </si>
+  <si>
+    <t>Tambakulu</t>
+  </si>
+  <si>
+    <t>PT_FMA6</t>
+  </si>
+  <si>
+    <t>PT_FMA7</t>
+  </si>
+  <si>
+    <t>Elevation [m] with respect to msl</t>
+  </si>
+  <si>
+    <t>HLC [m]</t>
+  </si>
+  <si>
     <t>Suranti</t>
   </si>
   <si>
@@ -54,25 +72,7 @@
     <t>PS_FMA3</t>
   </si>
   <si>
-    <t>PT_FMA5</t>
-  </si>
-  <si>
-    <t>Tambakulu</t>
-  </si>
-  <si>
-    <t>PT_FMA6</t>
-  </si>
-  <si>
-    <t>PT_FMA7</t>
-  </si>
-  <si>
     <t>PT_FMA9</t>
-  </si>
-  <si>
-    <t>Elevation [m] with respect to msl</t>
-  </si>
-  <si>
-    <t>HLC [m]</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,22 +152,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,29 +167,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,10 +496,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -523,208 +509,196 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8">
         <v>560</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>30</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>187.5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>91.5</v>
       </c>
-      <c r="G2" s="8">
-        <v>-1.2131388528508</v>
-      </c>
-      <c r="H2" s="8">
-        <v>-0.77046377322800597</v>
-      </c>
-      <c r="I2" s="6">
-        <v>-0.14767507962279597</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0.29281379741842078</v>
+      <c r="G2" s="9">
+        <v>-1.196</v>
+      </c>
+      <c r="H2" s="9">
+        <v>-0.74</v>
+      </c>
+      <c r="I2" s="10">
+        <v>-0.14453622677199413</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.24846356013530341</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
         <v>620</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>236.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>96.5</v>
       </c>
-      <c r="G3" s="7">
-        <v>-1.1831388528508</v>
-      </c>
-      <c r="H3" s="7">
-        <v>-0.77046377322800597</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-0.11767507962279572</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.29281379741842078</v>
+      <c r="G3" s="6">
+        <v>-1.1659999999999997</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-0.74</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-0.11453622677199388</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.24846356013530341</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>460</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>95</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>95</v>
       </c>
-      <c r="G4" s="7">
-        <v>-0.89369906734565263</v>
-      </c>
-      <c r="H4" s="7">
-        <v>-0.77046377322800597</v>
-      </c>
-      <c r="I4" s="4">
-        <v>-0.15823529411764692</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.21711729539259642</v>
+      <c r="G4">
+        <v>-0.87969906734565262</v>
+      </c>
+      <c r="H4">
+        <v>-0.74</v>
+      </c>
+      <c r="I4">
+        <v>-0.15823529411764681</v>
+      </c>
+      <c r="J4">
+        <v>0.13089744350104604</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>490</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>114</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>114</v>
       </c>
-      <c r="G5" s="8">
-        <v>-0.89369906734565263</v>
-      </c>
-      <c r="H5" s="8">
-        <v>-0.77046377322800597</v>
-      </c>
-      <c r="I5" s="6">
-        <v>-0.15823529411764692</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.21711729539259642</v>
+      <c r="G5">
+        <v>-0.87969906734565262</v>
+      </c>
+      <c r="H5">
+        <v>-0.74</v>
+      </c>
+      <c r="I5">
+        <v>-0.15823529411764681</v>
+      </c>
+      <c r="J5">
+        <v>0.13089744350104604</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>470</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>112.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>112.5</v>
       </c>
-      <c r="G6" s="7">
-        <v>-0.9736990673456527</v>
-      </c>
-      <c r="H6" s="7">
-        <v>-0.77046377322800597</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-0.2382352941176471</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.21711729539259642</v>
+      <c r="G6">
+        <v>-0.95969906734565269</v>
+      </c>
+      <c r="H6">
+        <v>-0.74</v>
+      </c>
+      <c r="I6">
+        <v>-0.23823529411764688</v>
+      </c>
+      <c r="J6">
+        <v>0.13089744350104604</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>420</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>58</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>58</v>
       </c>
-      <c r="G7" s="7">
-        <v>-0.95369906734565291</v>
-      </c>
-      <c r="H7" s="7">
-        <v>-0.77046377322800597</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-8.8235294117647189E-2</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.28851329251629981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="G7">
+        <v>-0.93969906734565289</v>
+      </c>
+      <c r="H7">
+        <v>-0.74</v>
+      </c>
+      <c r="I7">
+        <v>-8.8235294117647078E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.2307252494095727</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
